--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_10_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_10_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2963626.622927095</v>
+        <v>2960818.921886624</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430763.7823717229</v>
+        <v>430763.7823717227</v>
       </c>
     </row>
     <row r="9">
@@ -668,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.21022140383137</v>
+      </c>
+      <c r="H2" t="n">
         <v>263.2420339516669</v>
       </c>
-      <c r="G2" t="n">
-        <v>263.2420339516669</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852073</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>-1.27897692436818e-13</v>
       </c>
       <c r="R2" t="n">
         <v>144.0576027644701</v>
@@ -713,16 +713,16 @@
         <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>106.2708872593825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>124.2600543520732</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,13 +744,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>52.61646269370643</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
         <v>199.9652070090748</v>
@@ -795,13 +795,13 @@
         <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>41.27707687063237</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>159.8350691069752</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,22 +902,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>20.85732126240501</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>263.2420339516669</v>
       </c>
       <c r="G5" t="n">
-        <v>263.2420339516669</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="H5" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052852086</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>84.49954166906126</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.16756529285206</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1026,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>7.328789249503813</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,7 +1038,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>13.40110646040598</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>159.8350691069752</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>14.73658446502901</v>
       </c>
       <c r="H8" t="n">
-        <v>333.6766871913686</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>63.49276525707597</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>114.3055064074261</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>196.1188569569539</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>86.74508908406146</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1212,22 +1212,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.0405985760713</v>
       </c>
       <c r="H9" t="n">
-        <v>8.436106212585441</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>166.0565912067551</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>198.9437542142032</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9214532265578</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1275,10 +1275,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>169.7280349781321</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>137.175106868519</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>226.860501420568</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>90.14658562988707</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>7.729505493042395</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>7.729505493042338</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>99.11361516863749</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>83.55410938283612</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710055</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,7 +1859,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045434</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T17" t="n">
         <v>199.1970568374742</v>
@@ -1938,7 +1938,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>7.729505493042338</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
         <v>181.338488358459</v>
@@ -2059,7 +2059,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>195.2377629147102</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2096,7 +2096,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045434</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2175,7 +2175,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>95.66252631596336</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>131.6267707433221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
         <v>181.338488358459</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722598</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T23" t="n">
         <v>199.1970568374742</v>
@@ -2412,7 +2412,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.749532638427122</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S25" t="n">
-        <v>172.5112693098274</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
         <v>217.4819944627618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T26" t="n">
         <v>199.1970568374742</v>
@@ -2649,7 +2649,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>86.27179222793497</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S28" t="n">
         <v>181.338488358459</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>76.04058667828356</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T29" t="n">
         <v>199.1970568374742</v>
@@ -2886,7 +2886,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>86.27179222793497</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>89.5340822374514</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S31" t="n">
         <v>181.338488358459</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T32" t="n">
         <v>199.1970568374742</v>
@@ -3123,7 +3123,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H33" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>73.4234811937704</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S34" t="n">
-        <v>105.3305177187436</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T34" t="n">
         <v>217.4819944627618</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374742</v>
@@ -3360,7 +3360,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>7.729505493042338</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>95.66252631596331</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S37" t="n">
         <v>181.338488358459</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374742</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784685</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3597,7 +3597,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>85.258877604297</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S40" t="n">
         <v>181.338488358459</v>
@@ -3715,7 +3715,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1854515484204</v>
+        <v>198.3420844981783</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T41" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876469</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3834,7 +3834,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>131.6267707433221</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S43" t="n">
         <v>181.338488358459</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>21.20721658534494</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3992,7 +3992,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.5630920045434</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T44" t="n">
         <v>199.1970568374742</v>
@@ -4071,7 +4071,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4141,13 +4141,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>64.44601915223838</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S46" t="n">
         <v>181.338488358459</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>156.7177147119996</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>556.9999364092505</v>
+        <v>309.26976786483</v>
       </c>
       <c r="C2" t="n">
-        <v>556.9999364092505</v>
+        <v>309.26976786483</v>
       </c>
       <c r="D2" t="n">
-        <v>556.9999364092505</v>
+        <v>309.26976786483</v>
       </c>
       <c r="E2" t="n">
-        <v>556.9999364092505</v>
+        <v>309.26976786483</v>
       </c>
       <c r="F2" t="n">
-        <v>291.0988920136273</v>
+        <v>302.3242671156266</v>
       </c>
       <c r="G2" t="n">
-        <v>25.19784761800413</v>
+        <v>286.9604071117565</v>
       </c>
       <c r="H2" t="n">
-        <v>25.19784761800413</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I2" t="n">
-        <v>25.19784761800413</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J2" t="n">
         <v>21.05936271613335</v>
@@ -4361,19 +4361,19 @@
         <v>682.515142825486</v>
       </c>
       <c r="U2" t="n">
-        <v>682.515142825486</v>
+        <v>575.1708122604532</v>
       </c>
       <c r="V2" t="n">
-        <v>682.515142825486</v>
+        <v>309.26976786483</v>
       </c>
       <c r="W2" t="n">
-        <v>682.515142825486</v>
+        <v>309.26976786483</v>
       </c>
       <c r="X2" t="n">
-        <v>556.9999364092505</v>
+        <v>309.26976786483</v>
       </c>
       <c r="Y2" t="n">
-        <v>556.9999364092505</v>
+        <v>309.26976786483</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>326.8313756947039</v>
+        <v>74.20730483098833</v>
       </c>
       <c r="C3" t="n">
-        <v>326.8313756947039</v>
+        <v>74.20730483098833</v>
       </c>
       <c r="D3" t="n">
-        <v>326.8313756947039</v>
+        <v>74.20730483098833</v>
       </c>
       <c r="E3" t="n">
-        <v>167.5939206892484</v>
+        <v>74.20730483098833</v>
       </c>
       <c r="F3" t="n">
-        <v>21.05936271613335</v>
+        <v>74.20730483098833</v>
       </c>
       <c r="G3" t="n">
         <v>21.05936271613335</v>
@@ -4407,25 +4407,25 @@
         <v>21.05936271613335</v>
       </c>
       <c r="J3" t="n">
-        <v>21.05936271613335</v>
+        <v>24.95018035683216</v>
       </c>
       <c r="K3" t="n">
-        <v>23.69049064951602</v>
+        <v>158.2210505399124</v>
       </c>
       <c r="L3" t="n">
-        <v>264.2940185443786</v>
+        <v>271.335844489875</v>
       </c>
       <c r="M3" t="n">
-        <v>524.9036321565288</v>
+        <v>531.9454581020252</v>
       </c>
       <c r="N3" t="n">
-        <v>524.9036321565288</v>
+        <v>792.5550717141754</v>
       </c>
       <c r="O3" t="n">
-        <v>785.316696249021</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="P3" t="n">
-        <v>977.3180709271197</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q3" t="n">
         <v>1052.968135806668</v>
@@ -4434,25 +4434,25 @@
         <v>1052.968135806668</v>
       </c>
       <c r="S3" t="n">
-        <v>1052.968135806668</v>
+        <v>880.4795283993085</v>
       </c>
       <c r="T3" t="n">
-        <v>850.9830782217434</v>
+        <v>678.4944708143844</v>
       </c>
       <c r="U3" t="n">
-        <v>622.7627494639482</v>
+        <v>450.2741420565892</v>
       </c>
       <c r="V3" t="n">
-        <v>581.0687324229054</v>
+        <v>450.2741420565892</v>
       </c>
       <c r="W3" t="n">
-        <v>326.8313756947039</v>
+        <v>450.2741420565892</v>
       </c>
       <c r="X3" t="n">
-        <v>326.8313756947039</v>
+        <v>242.4226418510564</v>
       </c>
       <c r="Y3" t="n">
-        <v>326.8313756947039</v>
+        <v>242.4226418510564</v>
       </c>
     </row>
     <row r="4">
@@ -4519,16 +4519,16 @@
         <v>182.5089274706538</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="W4" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="Y4" t="n">
         <v>21.05936271613335</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1052.968135806668</v>
+        <v>302.3242671156266</v>
       </c>
       <c r="C5" t="n">
-        <v>1052.968135806668</v>
+        <v>302.3242671156266</v>
       </c>
       <c r="D5" t="n">
-        <v>1052.968135806668</v>
+        <v>302.3242671156266</v>
       </c>
       <c r="E5" t="n">
-        <v>1031.900134531511</v>
+        <v>302.3242671156266</v>
       </c>
       <c r="F5" t="n">
-        <v>765.9990901358879</v>
+        <v>36.42322272000342</v>
       </c>
       <c r="G5" t="n">
-        <v>500.0980457402646</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H5" t="n">
-        <v>234.1970013446414</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I5" t="n">
-        <v>25.19784761800414</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J5" t="n">
         <v>21.05936271613335</v>
@@ -4574,13 +4574,13 @@
         <v>330.2546714142364</v>
       </c>
       <c r="M5" t="n">
-        <v>563.3128681098027</v>
+        <v>563.3128681098028</v>
       </c>
       <c r="N5" t="n">
-        <v>785.5101925369333</v>
+        <v>785.5101925369336</v>
       </c>
       <c r="O5" t="n">
-        <v>950.1371873885146</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P5" t="n">
         <v>1052.968135806668</v>
@@ -4589,28 +4589,28 @@
         <v>1052.968135806668</v>
       </c>
       <c r="R5" t="n">
-        <v>1052.968135806668</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="S5" t="n">
-        <v>1052.968135806668</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="T5" t="n">
-        <v>1052.968135806668</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="U5" t="n">
-        <v>1052.968135806668</v>
+        <v>653.5783839042409</v>
       </c>
       <c r="V5" t="n">
-        <v>1052.968135806668</v>
+        <v>653.5783839042409</v>
       </c>
       <c r="W5" t="n">
-        <v>1052.968135806668</v>
+        <v>568.2253115112497</v>
       </c>
       <c r="X5" t="n">
-        <v>1052.968135806668</v>
+        <v>568.2253115112497</v>
       </c>
       <c r="Y5" t="n">
-        <v>1052.968135806668</v>
+        <v>568.2253115112497</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>344.4468016585116</v>
+        <v>159.7401876451189</v>
       </c>
       <c r="C6" t="n">
-        <v>169.9937723773846</v>
+        <v>159.7401876451189</v>
       </c>
       <c r="D6" t="n">
-        <v>21.05936271613335</v>
+        <v>159.7401876451189</v>
       </c>
       <c r="E6" t="n">
-        <v>21.05936271613335</v>
+        <v>159.7401876451189</v>
       </c>
       <c r="F6" t="n">
-        <v>21.05936271613335</v>
+        <v>159.7401876451189</v>
       </c>
       <c r="G6" t="n">
         <v>21.05936271613335</v>
@@ -4644,25 +4644,25 @@
         <v>21.05936271613335</v>
       </c>
       <c r="J6" t="n">
-        <v>21.05936271613335</v>
+        <v>24.95018035683216</v>
       </c>
       <c r="K6" t="n">
-        <v>99.34055552906386</v>
+        <v>158.2210505399124</v>
       </c>
       <c r="L6" t="n">
-        <v>339.9440834239264</v>
+        <v>158.2210505399124</v>
       </c>
       <c r="M6" t="n">
-        <v>600.5536970360766</v>
+        <v>418.8306641520626</v>
       </c>
       <c r="N6" t="n">
-        <v>600.5536970360766</v>
+        <v>679.4402777642129</v>
       </c>
       <c r="O6" t="n">
-        <v>860.9667611285688</v>
+        <v>785.316696249021</v>
       </c>
       <c r="P6" t="n">
-        <v>1052.968135806668</v>
+        <v>977.3180709271197</v>
       </c>
       <c r="Q6" t="n">
         <v>1052.968135806668</v>
@@ -4674,22 +4674,22 @@
         <v>1052.968135806668</v>
       </c>
       <c r="T6" t="n">
-        <v>1052.968135806668</v>
+        <v>1045.565318382926</v>
       </c>
       <c r="U6" t="n">
-        <v>1052.968135806668</v>
+        <v>817.3449896251311</v>
       </c>
       <c r="V6" t="n">
-        <v>817.8160275749249</v>
+        <v>582.1928813933885</v>
       </c>
       <c r="W6" t="n">
-        <v>563.5786708467233</v>
+        <v>327.9555246651869</v>
       </c>
       <c r="X6" t="n">
-        <v>355.7271706411905</v>
+        <v>327.9555246651869</v>
       </c>
       <c r="Y6" t="n">
-        <v>355.7271706411905</v>
+        <v>327.9555246651869</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>182.5089274706537</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C7" t="n">
-        <v>182.5089274706537</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D7" t="n">
-        <v>168.9724562985265</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E7" t="n">
         <v>21.05936271613335</v>
@@ -4729,46 +4729,46 @@
         <v>21.05936271613335</v>
       </c>
       <c r="L7" t="n">
-        <v>54.48163939360304</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M7" t="n">
         <v>100.1098670955241</v>
       </c>
       <c r="N7" t="n">
-        <v>150.0877739486499</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O7" t="n">
         <v>180.2341645716486</v>
       </c>
       <c r="P7" t="n">
-        <v>182.5089274706537</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q7" t="n">
-        <v>182.5089274706537</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R7" t="n">
-        <v>182.5089274706537</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="S7" t="n">
-        <v>182.5089274706537</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="T7" t="n">
-        <v>182.5089274706537</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="U7" t="n">
-        <v>182.5089274706537</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="V7" t="n">
-        <v>182.5089274706537</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="W7" t="n">
-        <v>182.5089274706537</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="X7" t="n">
-        <v>182.5089274706537</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="Y7" t="n">
-        <v>182.5089274706537</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1209.688745961373</v>
+        <v>808.5074808619339</v>
       </c>
       <c r="C8" t="n">
-        <v>840.7262290209612</v>
+        <v>439.5449639215222</v>
       </c>
       <c r="D8" t="n">
-        <v>840.7262290209612</v>
+        <v>439.5449639215222</v>
       </c>
       <c r="E8" t="n">
-        <v>454.937976422717</v>
+        <v>53.75671132327795</v>
       </c>
       <c r="F8" t="n">
-        <v>447.9924756735135</v>
+        <v>46.81121057407449</v>
       </c>
       <c r="G8" t="n">
-        <v>433.1070368199489</v>
+        <v>31.92577172050983</v>
       </c>
       <c r="H8" t="n">
-        <v>96.05987804078865</v>
+        <v>31.92577172050983</v>
       </c>
       <c r="I8" t="n">
-        <v>31.92577172050989</v>
+        <v>31.92577172050983</v>
       </c>
       <c r="J8" t="n">
-        <v>67.66699237151704</v>
+        <v>67.6669923715167</v>
       </c>
       <c r="K8" t="n">
-        <v>241.9786214193919</v>
+        <v>241.9786214193912</v>
       </c>
       <c r="L8" t="n">
-        <v>510.5042384841139</v>
+        <v>510.5042384841129</v>
       </c>
       <c r="M8" t="n">
-        <v>825.8972722888566</v>
+        <v>825.8972722888552</v>
       </c>
       <c r="N8" t="n">
-        <v>1131.761697568012</v>
+        <v>1131.76169756801</v>
       </c>
       <c r="O8" t="n">
-        <v>1375.393163234504</v>
+        <v>1375.393163234502</v>
       </c>
       <c r="P8" t="n">
-        <v>1545.652599660151</v>
+        <v>1545.652599660149</v>
       </c>
       <c r="Q8" t="n">
-        <v>1596.288586025495</v>
+        <v>1596.288586025491</v>
       </c>
       <c r="R8" t="n">
-        <v>1596.288586025495</v>
+        <v>1480.828478543243</v>
       </c>
       <c r="S8" t="n">
-        <v>1596.288586025495</v>
+        <v>1282.728623031168</v>
       </c>
       <c r="T8" t="n">
-        <v>1596.288586025495</v>
+        <v>1195.107320926056</v>
       </c>
       <c r="U8" t="n">
-        <v>1596.288586025495</v>
+        <v>1195.107320926056</v>
       </c>
       <c r="V8" t="n">
-        <v>1596.288586025495</v>
+        <v>1195.107320926056</v>
       </c>
       <c r="W8" t="n">
-        <v>1596.288586025495</v>
+        <v>1195.107320926056</v>
       </c>
       <c r="X8" t="n">
-        <v>1596.288586025495</v>
+        <v>1195.107320926056</v>
       </c>
       <c r="Y8" t="n">
-        <v>1596.288586025495</v>
+        <v>1195.107320926056</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>523.0719850749956</v>
+        <v>170.3506187670465</v>
       </c>
       <c r="C9" t="n">
-        <v>348.6189557938686</v>
+        <v>170.3506187670465</v>
       </c>
       <c r="D9" t="n">
-        <v>199.6845461326174</v>
+        <v>170.3506187670465</v>
       </c>
       <c r="E9" t="n">
-        <v>40.44709112716185</v>
+        <v>170.3506187670465</v>
       </c>
       <c r="F9" t="n">
-        <v>40.44709112716185</v>
+        <v>170.3506187670465</v>
       </c>
       <c r="G9" t="n">
-        <v>40.44709112716185</v>
+        <v>31.92577172050983</v>
       </c>
       <c r="H9" t="n">
-        <v>31.92577172050989</v>
+        <v>31.92577172050983</v>
       </c>
       <c r="I9" t="n">
-        <v>31.92577172050989</v>
+        <v>31.92577172050983</v>
       </c>
       <c r="J9" t="n">
-        <v>31.92577172050989</v>
+        <v>59.51961820537265</v>
       </c>
       <c r="K9" t="n">
-        <v>31.92577172050989</v>
+        <v>233.3027400460169</v>
       </c>
       <c r="L9" t="n">
-        <v>327.003021491346</v>
+        <v>528.3799898168527</v>
       </c>
       <c r="M9" t="n">
-        <v>641.193229361517</v>
+        <v>533.5180518372176</v>
       </c>
       <c r="N9" t="n">
-        <v>1036.274654402827</v>
+        <v>928.5994768785267</v>
       </c>
       <c r="O9" t="n">
-        <v>1356.379385813892</v>
+        <v>1248.704208289591</v>
       </c>
       <c r="P9" t="n">
-        <v>1596.288586025495</v>
+        <v>1488.613408501194</v>
       </c>
       <c r="Q9" t="n">
-        <v>1596.288586025495</v>
+        <v>1596.288586025491</v>
       </c>
       <c r="R9" t="n">
-        <v>1596.288586025495</v>
+        <v>1596.288586025491</v>
       </c>
       <c r="S9" t="n">
-        <v>1596.288586025495</v>
+        <v>1428.554655513618</v>
       </c>
       <c r="T9" t="n">
-        <v>1596.288586025495</v>
+        <v>1227.601368428564</v>
       </c>
       <c r="U9" t="n">
-        <v>1596.288586025495</v>
+        <v>999.3978803209299</v>
       </c>
       <c r="V9" t="n">
-        <v>1361.136477793752</v>
+        <v>764.2457720891871</v>
       </c>
       <c r="W9" t="n">
-        <v>1106.89912106555</v>
+        <v>510.0084153609855</v>
       </c>
       <c r="X9" t="n">
-        <v>899.0476208600176</v>
+        <v>338.5659557871146</v>
       </c>
       <c r="Y9" t="n">
-        <v>691.2873220950637</v>
+        <v>338.5659557871146</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>170.4864857291149</v>
+        <v>31.92577172050983</v>
       </c>
       <c r="C10" t="n">
-        <v>170.4864857291149</v>
+        <v>31.92577172050983</v>
       </c>
       <c r="D10" t="n">
-        <v>170.4864857291149</v>
+        <v>31.92577172050983</v>
       </c>
       <c r="E10" t="n">
-        <v>31.92577172050989</v>
+        <v>31.92577172050983</v>
       </c>
       <c r="F10" t="n">
-        <v>31.92577172050989</v>
+        <v>31.92577172050983</v>
       </c>
       <c r="G10" t="n">
-        <v>31.92577172050989</v>
+        <v>31.92577172050983</v>
       </c>
       <c r="H10" t="n">
-        <v>31.92577172050989</v>
+        <v>31.92577172050983</v>
       </c>
       <c r="I10" t="n">
-        <v>31.92577172050989</v>
+        <v>31.92577172050983</v>
       </c>
       <c r="J10" t="n">
-        <v>31.92577172050989</v>
+        <v>31.92577172050983</v>
       </c>
       <c r="K10" t="n">
-        <v>39.08908224095525</v>
+        <v>39.08908224095504</v>
       </c>
       <c r="L10" t="n">
-        <v>103.7820880685937</v>
+        <v>103.7820880685932</v>
       </c>
       <c r="M10" t="n">
-        <v>182.3809151796109</v>
+        <v>182.3809151796102</v>
       </c>
       <c r="N10" t="n">
-        <v>264.5454542807977</v>
+        <v>264.5454542807969</v>
       </c>
       <c r="O10" t="n">
-        <v>324.4214093422716</v>
+        <v>324.4214093422705</v>
       </c>
       <c r="P10" t="n">
-        <v>352.1349505593546</v>
+        <v>352.1349505593533</v>
       </c>
       <c r="Q10" t="n">
-        <v>352.1349505593546</v>
+        <v>352.1349505593533</v>
       </c>
       <c r="R10" t="n">
-        <v>352.1349505593546</v>
+        <v>352.1349505593533</v>
       </c>
       <c r="S10" t="n">
-        <v>352.1349505593546</v>
+        <v>352.1349505593533</v>
       </c>
       <c r="T10" t="n">
-        <v>352.1349505593546</v>
+        <v>122.982928922416</v>
       </c>
       <c r="U10" t="n">
-        <v>352.1349505593546</v>
+        <v>31.92577172050983</v>
       </c>
       <c r="V10" t="n">
-        <v>352.1349505593546</v>
+        <v>31.92577172050983</v>
       </c>
       <c r="W10" t="n">
-        <v>352.1349505593546</v>
+        <v>31.92577172050983</v>
       </c>
       <c r="X10" t="n">
-        <v>352.1349505593546</v>
+        <v>31.92577172050983</v>
       </c>
       <c r="Y10" t="n">
-        <v>352.1349505593546</v>
+        <v>31.92577172050983</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E11" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963557</v>
       </c>
       <c r="G11" t="n">
         <v>380.2757138127629</v>
@@ -5039,19 +5039,19 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
-        <v>424.14374500152</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K11" t="n">
-        <v>893.7741287892018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L11" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M11" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N11" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O11" t="n">
         <v>3654.445485610258</v>
@@ -5115,22 +5115,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I12" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J12" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="K12" t="n">
-        <v>163.4947075553185</v>
+        <v>238.7141959544597</v>
       </c>
       <c r="L12" t="n">
-        <v>654.2270403990698</v>
+        <v>729.446528798211</v>
       </c>
       <c r="M12" t="n">
-        <v>1246.245394651197</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="N12" t="n">
-        <v>1868.341358050533</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O12" t="n">
         <v>1868.341358050533</v>
@@ -5179,13 +5179,13 @@
         <v>326.1595320196932</v>
       </c>
       <c r="D13" t="n">
-        <v>326.1595320196932</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="E13" t="n">
-        <v>326.1595320196932</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="F13" t="n">
-        <v>326.1595320196932</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="G13" t="n">
         <v>318.3519507135898</v>
@@ -5255,7 +5255,7 @@
         <v>2318.26119383137</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D14" t="n">
         <v>1591.032978284208</v>
@@ -5264,64 +5264,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963563</v>
       </c>
       <c r="G14" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K14" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.583449151119</v>
       </c>
       <c r="O14" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610257</v>
       </c>
       <c r="P14" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.41740758035</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347199</v>
       </c>
       <c r="T14" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J15" t="n">
-        <v>93.84834815160703</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K15" t="n">
-        <v>93.84834815160703</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L15" t="n">
-        <v>584.5806809953583</v>
+        <v>929.9301936362498</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.599035247486</v>
+        <v>929.9301936362498</v>
       </c>
       <c r="N15" t="n">
-        <v>1798.694998646822</v>
+        <v>1552.026157035586</v>
       </c>
       <c r="O15" t="n">
-        <v>2345.571473647016</v>
+        <v>2098.90263203578</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R15" t="n">
         <v>2553.812354695766</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>904.7337306758571</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C16" t="n">
-        <v>735.7975477479503</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D16" t="n">
-        <v>585.6809083356145</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E16" t="n">
-        <v>485.566145539011</v>
+        <v>178.2464384373001</v>
       </c>
       <c r="F16" t="n">
-        <v>485.566145539011</v>
+        <v>178.2464384373001</v>
       </c>
       <c r="G16" t="n">
-        <v>318.3519507135898</v>
+        <v>178.2464384373001</v>
       </c>
       <c r="H16" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J16" t="n">
         <v>172.8304710411609</v>
@@ -5476,10 +5476,10 @@
         <v>1125.526309819387</v>
       </c>
       <c r="X16" t="n">
-        <v>1125.526309819387</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y16" t="n">
-        <v>904.7337306758571</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831368</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D17" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E17" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127619</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J17" t="n">
-        <v>424.14374500152</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K17" t="n">
-        <v>893.7741287892018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L17" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M17" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N17" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.41740758035</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347199</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.740996026518</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746067</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402496</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132382</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871302</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.86103389549</v>
       </c>
     </row>
     <row r="18">
@@ -5586,13 +5586,13 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H18" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J18" t="n">
-        <v>241.4963299034529</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K18" t="n">
         <v>572.0050724668117</v>
@@ -5601,19 +5601,19 @@
         <v>1062.737405310563</v>
       </c>
       <c r="M18" t="n">
-        <v>1654.75575956269</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N18" t="n">
-        <v>2276.851722962027</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.812354695766</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R18" t="n">
         <v>2553.812354695766</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>495.0957149476001</v>
+        <v>552.5703416234767</v>
       </c>
       <c r="C19" t="n">
-        <v>326.1595320196932</v>
+        <v>383.6341586955697</v>
       </c>
       <c r="D19" t="n">
-        <v>326.1595320196932</v>
+        <v>383.6341586955697</v>
       </c>
       <c r="E19" t="n">
-        <v>326.1595320196932</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="F19" t="n">
-        <v>326.1595320196932</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G19" t="n">
-        <v>318.3519507135898</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H19" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J19" t="n">
         <v>172.8304710411609</v>
@@ -5707,16 +5707,16 @@
         <v>1669.627968062235</v>
       </c>
       <c r="V19" t="n">
-        <v>1414.943479856348</v>
+        <v>1472.418106532225</v>
       </c>
       <c r="W19" t="n">
-        <v>1125.526309819387</v>
+        <v>1183.000936495264</v>
       </c>
       <c r="X19" t="n">
-        <v>897.5367589213699</v>
+        <v>955.0113855972465</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.7441797778398</v>
+        <v>734.2188064537164</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D20" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E20" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127619</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K20" t="n">
-        <v>893.7741287892018</v>
+        <v>893.7741287892006</v>
       </c>
       <c r="L20" t="n">
-        <v>1513.293909294976</v>
+        <v>1513.293909294975</v>
       </c>
       <c r="M20" t="n">
-        <v>2234.298471234014</v>
+        <v>2234.298471234013</v>
       </c>
       <c r="N20" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.583449151119</v>
       </c>
       <c r="O20" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610257</v>
       </c>
       <c r="P20" t="n">
         <v>4202.751434297606</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R20" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.41740758035</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347199</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.740996026518</v>
       </c>
       <c r="U20" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V20" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W20" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X20" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J21" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="K21" t="n">
-        <v>93.84834815160703</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L21" t="n">
-        <v>584.5806809953583</v>
+        <v>526.9340838249508</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.599035247486</v>
+        <v>1118.952438077079</v>
       </c>
       <c r="N21" t="n">
-        <v>1798.694998646822</v>
+        <v>1741.048401476415</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.571473647016</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R21" t="n">
         <v>2553.812354695766</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.9550599890988</v>
+        <v>580.1153653172707</v>
       </c>
       <c r="C22" t="n">
-        <v>394.0188770611919</v>
+        <v>411.1791823893639</v>
       </c>
       <c r="D22" t="n">
-        <v>394.0188770611919</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="E22" t="n">
-        <v>394.0188770611919</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F22" t="n">
-        <v>394.0188770611919</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G22" t="n">
-        <v>226.8046822357708</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="H22" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I22" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J22" t="n">
         <v>172.8304710411609</v>
@@ -5932,28 +5932,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S22" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T22" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U22" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V22" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W22" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X22" t="n">
-        <v>965.3961039628687</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y22" t="n">
-        <v>744.6035248193385</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831368</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890957</v>
       </c>
       <c r="D23" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284206</v>
       </c>
       <c r="E23" t="n">
         <v>1205.244725685964</v>
@@ -5981,58 +5981,58 @@
         <v>380.2757138127629</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234013</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.583449151119</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610257</v>
       </c>
       <c r="P23" t="n">
         <v>4202.751434297606</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.41740758035</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.950144347199</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.740996026518</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746067</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402496</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132382</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871302</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.86103389549</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H24" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J24" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="K24" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="L24" t="n">
-        <v>107.3505653988756</v>
+        <v>142.676769632785</v>
       </c>
       <c r="M24" t="n">
-        <v>699.3689196510031</v>
+        <v>734.6951238849127</v>
       </c>
       <c r="N24" t="n">
-        <v>1321.464883050339</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O24" t="n">
-        <v>1868.341358050533</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P24" t="n">
-        <v>2287.924876476609</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q24" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R24" t="n">
         <v>2553.812354695766</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.8714428665047</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C25" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D25" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E25" t="n">
-        <v>402.9352599385978</v>
+        <v>178.2464384373001</v>
       </c>
       <c r="F25" t="n">
-        <v>402.9352599385978</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="G25" t="n">
-        <v>235.7210651131766</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="H25" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I25" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J25" t="n">
         <v>172.8304710411609</v>
@@ -6169,28 +6169,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S25" t="n">
-        <v>2255.15869195203</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.479909666413</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.403695981139</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.719207775252</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.302037738292</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X25" t="n">
-        <v>974.3124868402746</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.5199076967444</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G26" t="n">
         <v>380.2757138127627</v>
@@ -6224,28 +6224,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K26" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M26" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N26" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R26" t="n">
         <v>4692.417407580351</v>
@@ -6303,28 +6303,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J27" t="n">
-        <v>93.84834815160703</v>
+        <v>208.6365868072512</v>
       </c>
       <c r="K27" t="n">
-        <v>424.3570907149658</v>
+        <v>208.6365868072512</v>
       </c>
       <c r="L27" t="n">
-        <v>915.089423558717</v>
+        <v>699.3689196510026</v>
       </c>
       <c r="M27" t="n">
-        <v>1507.107777810845</v>
+        <v>699.3689196510026</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.203741210181</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O27" t="n">
-        <v>2134.22883626969</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R27" t="n">
         <v>2553.812354695766</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>495.0957149476001</v>
+        <v>707.7042115721531</v>
       </c>
       <c r="C28" t="n">
-        <v>495.0957149476001</v>
+        <v>538.7680286442462</v>
       </c>
       <c r="D28" t="n">
-        <v>495.0957149476001</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9524904749385</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0625429770282</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G28" t="n">
         <v>93.84834815160703</v>
@@ -6421,13 +6421,13 @@
         <v>1414.943479856348</v>
       </c>
       <c r="W28" t="n">
-        <v>1125.526309819387</v>
+        <v>1338.13480644394</v>
       </c>
       <c r="X28" t="n">
-        <v>897.5367589213699</v>
+        <v>1110.145255545923</v>
       </c>
       <c r="Y28" t="n">
-        <v>676.7441797778398</v>
+        <v>889.3526764023928</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D29" t="n">
         <v>1591.032978284208</v>
@@ -6449,10 +6449,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H29" t="n">
         <v>93.84834815160703</v>
@@ -6461,10 +6461,10 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>424.14374500152</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K29" t="n">
-        <v>893.7741287892018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L29" t="n">
         <v>1513.293909294976</v>
@@ -6503,10 +6503,10 @@
         <v>3468.466124132383</v>
       </c>
       <c r="X29" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K30" t="n">
-        <v>93.84834815160703</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L30" t="n">
-        <v>584.5806809953583</v>
+        <v>915.0894235587172</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.599035247486</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N30" t="n">
-        <v>1798.694998646822</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="O30" t="n">
-        <v>2345.571473647016</v>
+        <v>2053.984252811039</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695766</v>
@@ -6598,19 +6598,19 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C31" t="n">
-        <v>407.9524904749385</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9524904749385</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9524904749385</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0625429770282</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G31" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H31" t="n">
         <v>93.84834815160703</v>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C32" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D32" t="n">
         <v>1591.032978284208</v>
@@ -6686,10 +6686,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H32" t="n">
         <v>93.84834815160703</v>
@@ -6698,28 +6698,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K32" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L32" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M32" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O32" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P32" t="n">
-        <v>4151.951912946806</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q32" t="n">
-        <v>4515.534099052813</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R32" t="n">
         <v>4692.417407580351</v>
@@ -6780,25 +6780,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K33" t="n">
-        <v>93.84834815160703</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L33" t="n">
-        <v>142.6767696327857</v>
+        <v>699.3689196510026</v>
       </c>
       <c r="M33" t="n">
-        <v>734.6951238849133</v>
+        <v>699.3689196510026</v>
       </c>
       <c r="N33" t="n">
-        <v>1356.791087284249</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O33" t="n">
-        <v>1903.667562284444</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P33" t="n">
-        <v>2323.25108071052</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R33" t="n">
         <v>2553.812354695766</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.8714428665047</v>
+        <v>715.8882940911302</v>
       </c>
       <c r="C34" t="n">
-        <v>402.9352599385978</v>
+        <v>715.8882940911302</v>
       </c>
       <c r="D34" t="n">
-        <v>402.9352599385978</v>
+        <v>565.7716546787944</v>
       </c>
       <c r="E34" t="n">
-        <v>402.9352599385978</v>
+        <v>417.8585610964013</v>
       </c>
       <c r="F34" t="n">
-        <v>402.9352599385978</v>
+        <v>417.8585610964013</v>
       </c>
       <c r="G34" t="n">
-        <v>235.7210651131766</v>
+        <v>250.6443662709802</v>
       </c>
       <c r="H34" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I34" t="n">
         <v>93.84834815160703</v>
@@ -6883,25 +6883,25 @@
         <v>2361.553154294196</v>
       </c>
       <c r="S34" t="n">
-        <v>2255.15869195203</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.479909666413</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.403695981139</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.719207775252</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.302037738292</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X34" t="n">
-        <v>974.3124868402746</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.5199076967444</v>
+        <v>897.5367589213699</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C35" t="n">
         <v>1949.298676890958</v>
@@ -6923,7 +6923,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G35" t="n">
         <v>380.2757138127629</v>
@@ -6935,25 +6935,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L35" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M35" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N35" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q35" t="n">
         <v>4566.333620403613</v>
@@ -6971,16 +6971,16 @@
         <v>4152.297666746068</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W35" t="n">
         <v>3468.466124132383</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K36" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L36" t="n">
-        <v>584.5806809953583</v>
+        <v>732.2286627472043</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.599035247486</v>
+        <v>1324.247016999332</v>
       </c>
       <c r="N36" t="n">
-        <v>1798.694998646822</v>
+        <v>1946.342980398668</v>
       </c>
       <c r="O36" t="n">
-        <v>2345.571473647016</v>
+        <v>1946.342980398668</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.812354695766</v>
+        <v>2365.926498824744</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R36" t="n">
         <v>2553.812354695766</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>495.0957149476001</v>
+        <v>676.7441797778398</v>
       </c>
       <c r="C37" t="n">
-        <v>326.1595320196932</v>
+        <v>507.8079968499329</v>
       </c>
       <c r="D37" t="n">
-        <v>318.3519507135898</v>
+        <v>357.6913574375972</v>
       </c>
       <c r="E37" t="n">
-        <v>318.3519507135898</v>
+        <v>357.6913574375972</v>
       </c>
       <c r="F37" t="n">
-        <v>318.3519507135898</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G37" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H37" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I37" t="n">
         <v>93.84834815160703</v>
@@ -7163,55 +7163,55 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K38" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892025</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234014</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T38" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X38" t="n">
         <v>3095.000365871304</v>
@@ -7245,34 +7245,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612963</v>
       </c>
       <c r="J39" t="n">
-        <v>93.84834815160703</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K39" t="n">
-        <v>93.84834815160703</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L39" t="n">
-        <v>584.5806809953583</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.599035247486</v>
+        <v>1165.062459293462</v>
       </c>
       <c r="N39" t="n">
-        <v>1798.694998646822</v>
+        <v>1787.158422692798</v>
       </c>
       <c r="O39" t="n">
-        <v>2345.571473647016</v>
+        <v>2098.90263203578</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R39" t="n">
         <v>2553.812354695766</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>495.0957149476001</v>
+        <v>804.6189678792535</v>
       </c>
       <c r="C40" t="n">
-        <v>495.0957149476001</v>
+        <v>635.6827849513467</v>
       </c>
       <c r="D40" t="n">
-        <v>495.0957149476001</v>
+        <v>485.566145539011</v>
       </c>
       <c r="E40" t="n">
-        <v>347.182621365207</v>
+        <v>485.566145539011</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0625429770282</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G40" t="n">
-        <v>93.84834815160703</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H40" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J40" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L40" t="n">
         <v>820.2210160948589</v>
@@ -7363,19 +7363,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U40" t="n">
-        <v>1669.627968062235</v>
+        <v>1758.358641850358</v>
       </c>
       <c r="V40" t="n">
-        <v>1414.943479856348</v>
+        <v>1503.674153644471</v>
       </c>
       <c r="W40" t="n">
-        <v>1125.526309819387</v>
+        <v>1214.256983607511</v>
       </c>
       <c r="X40" t="n">
-        <v>897.5367589213699</v>
+        <v>986.2674327094933</v>
       </c>
       <c r="Y40" t="n">
-        <v>676.7441797778398</v>
+        <v>986.2674327094933</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C41" t="n">
         <v>1949.298676890959</v>
@@ -7397,64 +7397,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127631</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J41" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K41" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N41" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O41" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P41" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U41" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="42">
@@ -7482,22 +7482,22 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J42" t="n">
-        <v>93.84834815160703</v>
+        <v>238.7141959544597</v>
       </c>
       <c r="K42" t="n">
-        <v>93.84834815160703</v>
+        <v>238.7141959544597</v>
       </c>
       <c r="L42" t="n">
-        <v>584.5806809953583</v>
+        <v>729.446528798211</v>
       </c>
       <c r="M42" t="n">
-        <v>699.3689196510031</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="N42" t="n">
         <v>1321.464883050339</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>562.9550599890988</v>
+        <v>701.6638349513296</v>
       </c>
       <c r="C43" t="n">
-        <v>394.0188770611919</v>
+        <v>532.7276520234227</v>
       </c>
       <c r="D43" t="n">
-        <v>394.0188770611919</v>
+        <v>382.611012611087</v>
       </c>
       <c r="E43" t="n">
-        <v>394.0188770611919</v>
+        <v>382.611012611087</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0625429770282</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G43" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J43" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L43" t="n">
         <v>820.2210160948589</v>
@@ -7591,28 +7591,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S43" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T43" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U43" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V43" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W43" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X43" t="n">
-        <v>965.3961039628687</v>
+        <v>1104.104878925099</v>
       </c>
       <c r="Y43" t="n">
-        <v>744.6035248193385</v>
+        <v>883.3122997815693</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C44" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D44" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G44" t="n">
-        <v>380.2757138127619</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I44" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J44" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K44" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L44" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M44" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N44" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O44" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P44" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q44" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R44" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T44" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V44" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X44" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612963</v>
       </c>
       <c r="J45" t="n">
-        <v>93.84834815160703</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K45" t="n">
-        <v>93.84834815160703</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L45" t="n">
-        <v>584.5806809953583</v>
+        <v>960.0078027834583</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.599035247486</v>
+        <v>1552.026157035586</v>
       </c>
       <c r="N45" t="n">
-        <v>1798.694998646822</v>
+        <v>1552.026157035586</v>
       </c>
       <c r="O45" t="n">
-        <v>2345.571473647016</v>
+        <v>2098.90263203578</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R45" t="n">
         <v>2553.812354695766</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>495.0957149476001</v>
+        <v>557.5875721598175</v>
       </c>
       <c r="C46" t="n">
-        <v>326.1595320196932</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="D46" t="n">
-        <v>326.1595320196932</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E46" t="n">
-        <v>326.1595320196932</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0625429770282</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G46" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H46" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J46" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K46" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L46" t="n">
         <v>820.2210160948589</v>
@@ -7849,7 +7849,7 @@
         <v>897.5367589213699</v>
       </c>
       <c r="Y46" t="n">
-        <v>676.7441797778398</v>
+        <v>739.2360369900572</v>
       </c>
     </row>
   </sheetData>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>122.1609165114201</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>132.5059014068235</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>242.0638463692168</v>
       </c>
       <c r="M3" t="n">
         <v>392.8337743093849</v>
       </c>
       <c r="N3" t="n">
-        <v>118.4674613291452</v>
+        <v>381.7094952808121</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>124.5219861368072</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>133.6630807868109</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>122.1609165114201</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>208.9201083558617</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>127.8064787429919</v>
       </c>
       <c r="M6" t="n">
         <v>392.8337743093849</v>
       </c>
       <c r="N6" t="n">
-        <v>118.4674613291452</v>
+        <v>381.7094952808121</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>237.7646974507861</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>133.6630807868109</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>98.21846313347655</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>88.9267301028367</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>382.7452189439606</v>
+        <v>70.57133424718724</v>
       </c>
       <c r="N9" t="n">
-        <v>451.6297827178977</v>
+        <v>451.6297827178973</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>101.3144821557506</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>51.31264782908897</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>51.31264782909085</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>51.31264782908795</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>51.31264782909096</v>
+        <v>51.31264782908949</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>51.31264782908943</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>51.31264782909125</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>51.31264782909102</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>51.31264782909045</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>51.31264782909091</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>51.31264782908892</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10823,13 +10823,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>51.3126478290913</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>51.31264782909102</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>51.31264782909136</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>51.31264782909085</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>51.31264782909057</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>140.88596752517</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>157.8125473841246</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>47.32034747793168</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>56.8998804091178</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>157.8125473841246</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>56.89988040911777</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>84.16945386597394</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>8.827219048631804</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6715153845041</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>8.827219048631576</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>60.1621704186342</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>210.4824116583075</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>80.97502887069287</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>76.00797063971552</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>67.03050859818352</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>76.00797063971532</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>140.88596752517</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>49.75852170696794</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>60.16217041863425</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>87.84336705024211</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>13.79427727960913</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>204.5024388036922</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>80.97502887069287</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>61.86693864009519</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>822744.5699608844</v>
+        <v>822744.5699608843</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>822744.5699608843</v>
+        <v>822744.5699608844</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>733135.2407486257</v>
+        <v>733135.2407486255</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>733135.2407486256</v>
+        <v>733135.2407486255</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>733135.2407486256</v>
+        <v>733135.2407486255</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>733135.2407486256</v>
+        <v>733135.2407486255</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>733135.2407486255</v>
+        <v>733135.2407486256</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>733135.2407486256</v>
+        <v>733135.2407486255</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>733135.2407486257</v>
+        <v>733135.2407486255</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>733135.2407486255</v>
+        <v>733135.2407486256</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>733135.2407486255</v>
+        <v>733135.2407486256</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26314,46 @@
         <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846413</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846406</v>
       </c>
       <c r="E2" t="n">
+        <v>685680.530550776</v>
+      </c>
+      <c r="F2" t="n">
+        <v>685680.5305507759</v>
+      </c>
+      <c r="G2" t="n">
+        <v>685680.5305507757</v>
+      </c>
+      <c r="H2" t="n">
+        <v>685680.5305507757</v>
+      </c>
+      <c r="I2" t="n">
+        <v>685680.5305507759</v>
+      </c>
+      <c r="J2" t="n">
+        <v>685680.5305507759</v>
+      </c>
+      <c r="K2" t="n">
         <v>685680.5305507758</v>
       </c>
-      <c r="F2" t="n">
+      <c r="L2" t="n">
+        <v>685680.5305507757</v>
+      </c>
+      <c r="M2" t="n">
         <v>685680.5305507756</v>
       </c>
-      <c r="G2" t="n">
-        <v>685680.5305507756</v>
-      </c>
-      <c r="H2" t="n">
-        <v>685680.5305507758</v>
-      </c>
-      <c r="I2" t="n">
-        <v>685680.5305507758</v>
-      </c>
-      <c r="J2" t="n">
-        <v>685680.5305507757</v>
-      </c>
-      <c r="K2" t="n">
-        <v>685680.5305507757</v>
-      </c>
-      <c r="L2" t="n">
-        <v>685680.5305507756</v>
-      </c>
-      <c r="M2" t="n">
-        <v>685680.5305507758</v>
-      </c>
       <c r="N2" t="n">
-        <v>685680.5305507756</v>
+        <v>685680.5305507759</v>
       </c>
       <c r="O2" t="n">
         <v>685680.5305507755</v>
       </c>
       <c r="P2" t="n">
-        <v>685680.5305507755</v>
+        <v>685680.5305507757</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>143093.1975581069</v>
+        <v>143093.1975581059</v>
       </c>
       <c r="E3" t="n">
-        <v>1209019.537077498</v>
+        <v>1209019.537077499</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124993</v>
+        <v>68875.69873124997</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>34377.37901658329</v>
+        <v>34377.37901658309</v>
       </c>
       <c r="M3" t="n">
-        <v>192891.9217116891</v>
+        <v>192891.9217116893</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>354753.502998367</v>
       </c>
       <c r="D4" t="n">
-        <v>312563.8135151858</v>
+        <v>312563.8135151861</v>
       </c>
       <c r="E4" t="n">
-        <v>7918.14029743171</v>
+        <v>7918.140297431685</v>
       </c>
       <c r="F4" t="n">
-        <v>7918.140297431709</v>
+        <v>7918.140297431672</v>
       </c>
       <c r="G4" t="n">
-        <v>7918.140297431711</v>
+        <v>7918.140297431744</v>
       </c>
       <c r="H4" t="n">
-        <v>7918.140297431755</v>
+        <v>7918.140297431682</v>
       </c>
       <c r="I4" t="n">
-        <v>7918.140297431755</v>
+        <v>7918.140297431772</v>
       </c>
       <c r="J4" t="n">
-        <v>7918.140297431712</v>
+        <v>7918.140297431673</v>
       </c>
       <c r="K4" t="n">
-        <v>7918.140297431711</v>
+        <v>7918.140297431701</v>
       </c>
       <c r="L4" t="n">
-        <v>7918.140297431711</v>
+        <v>7918.140297431672</v>
       </c>
       <c r="M4" t="n">
-        <v>7918.140297431711</v>
+        <v>7918.14029743167</v>
       </c>
       <c r="N4" t="n">
-        <v>7918.140297431738</v>
+        <v>7918.140297431719</v>
       </c>
       <c r="O4" t="n">
-        <v>7918.140297431709</v>
+        <v>7918.140297431692</v>
       </c>
       <c r="P4" t="n">
-        <v>7918.140297431711</v>
+        <v>7918.140297431705</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>50134.40740683336</v>
       </c>
       <c r="D5" t="n">
-        <v>60961.29296005006</v>
+        <v>60961.29296005</v>
       </c>
       <c r="E5" t="n">
         <v>100930.0394572385</v>
@@ -26503,13 +26503,13 @@
         <v>100930.0394572385</v>
       </c>
       <c r="N5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="P5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>182603.1391044908</v>
       </c>
       <c r="C6" t="n">
-        <v>292997.5939794405</v>
+        <v>292997.593979441</v>
       </c>
       <c r="D6" t="n">
-        <v>181267.2003512979</v>
+        <v>181267.2003512986</v>
       </c>
       <c r="E6" t="n">
-        <v>-632187.1862813928</v>
+        <v>-632223.0832632579</v>
       </c>
       <c r="F6" t="n">
-        <v>576832.3507961053</v>
+        <v>576796.4538142415</v>
       </c>
       <c r="G6" t="n">
-        <v>576832.3507961053</v>
+        <v>576796.4538142411</v>
       </c>
       <c r="H6" t="n">
-        <v>576832.3507961056</v>
+        <v>576796.4538142411</v>
       </c>
       <c r="I6" t="n">
-        <v>576832.3507961056</v>
+        <v>576796.4538142413</v>
       </c>
       <c r="J6" t="n">
-        <v>507956.6520648556</v>
+        <v>507920.7550829914</v>
       </c>
       <c r="K6" t="n">
-        <v>576832.3507961055</v>
+        <v>576796.4538142412</v>
       </c>
       <c r="L6" t="n">
-        <v>542454.971779522</v>
+        <v>542419.0747976581</v>
       </c>
       <c r="M6" t="n">
-        <v>383940.4290844165</v>
+        <v>383904.5321025517</v>
       </c>
       <c r="N6" t="n">
-        <v>576832.3507961053</v>
+        <v>576796.4538142413</v>
       </c>
       <c r="O6" t="n">
-        <v>576832.3507961052</v>
+        <v>576796.4538142409</v>
       </c>
       <c r="P6" t="n">
-        <v>576832.3507961052</v>
+        <v>576796.4538142411</v>
       </c>
     </row>
   </sheetData>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26738,10 +26738,10 @@
         <v>23.01338268678962</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01338268678958</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="D3" t="n">
-        <v>140.8305712138784</v>
+        <v>140.8305712138777</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26793,7 +26793,7 @@
         <v>263.2420339516669</v>
       </c>
       <c r="D4" t="n">
-        <v>399.0721465063737</v>
+        <v>399.0721465063729</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117.8171885270889</v>
+        <v>117.8171885270881</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.210477502507</v>
+        <v>1217.210477502508</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>135.8301125547068</v>
+        <v>135.830112554706</v>
       </c>
       <c r="E4" t="n">
-        <v>774.0322053887141</v>
+        <v>774.0322053887149</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516671</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>135.8301125547068</v>
+        <v>135.830112554706</v>
       </c>
       <c r="M4" t="n">
-        <v>774.0322053887141</v>
+        <v>774.0322053887149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>135.8301125547068</v>
+        <v>135.830112554706</v>
       </c>
       <c r="M4" t="n">
-        <v>774.0322053887141</v>
+        <v>774.0322053887149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,19 +27388,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.6340117900446</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>151.9681874521645</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.5273214908784</v>
+        <v>75.28528753921148</v>
       </c>
       <c r="I2" t="n">
         <v>206.9091621893709</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852073</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>145.0673643595497</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.51022451846802</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>245.4710463263959</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,13 +27464,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>84.67755398598922</v>
       </c>
       <c r="H3" t="n">
         <v>111.757373777286</v>
@@ -27506,7 +27506,7 @@
         <v>97.08446202703753</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27515,13 +27515,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>191.5235102787929</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27591,7 +27591,7 @@
         <v>227.7682732010226</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3167657450791</v>
+        <v>126.4816966381038</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.74958424511956</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.4918077118137</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,22 +27622,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>361.0730488098568</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>143.6340117900446</v>
       </c>
       <c r="G5" t="n">
-        <v>151.9681874521645</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>75.28528753921148</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.097100052852073</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>206.9118586999128</v>
@@ -27670,13 +27670,13 @@
         <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>264.7414270483517</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155.3656183570153</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,7 +27707,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>111.757373777286</v>
@@ -27746,10 +27746,10 @@
         <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>199.9652070090748</v>
+        <v>192.636417759571</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>135.2143665578064</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,13 +27792,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>154.2024705022108</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J7" t="n">
-        <v>90.42516245839143</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K7" t="n">
-        <v>17.44799951871612</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>82.68702246598916</v>
       </c>
       <c r="R7" t="n">
-        <v>175.4274210366964</v>
+        <v>15.59235192972113</v>
       </c>
       <c r="S7" t="n">
         <v>223.2933741908973</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>333.6766871913687</v>
       </c>
       <c r="I8" t="n">
-        <v>125.1565088491167</v>
+        <v>188.6492741061928</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>114.3055064074259</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>196.1188569569539</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>220.6175145872921</v>
+        <v>133.8724255032307</v>
       </c>
       <c r="U8" t="n">
         <v>251.300360663828</v>
@@ -27932,25 +27932,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.0405985760713</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8737821954869</v>
+        <v>109.3098884080723</v>
       </c>
       <c r="I9" t="n">
-        <v>78.96719903982125</v>
+        <v>78.96719903982131</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>81.350309944118</v>
+        <v>81.3503099441181</v>
       </c>
       <c r="S9" t="n">
-        <v>166.056591206755</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>198.9437542142032</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9214532265578</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27995,10 +27995,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>36.04495022534533</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>9.258855778050219</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>159.96926597224</v>
       </c>
       <c r="I10" t="n">
-        <v>147.8133023112663</v>
+        <v>147.8133023112664</v>
       </c>
       <c r="J10" t="n">
-        <v>75.40443663584765</v>
+        <v>75.40443663584774</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.89662699839874</v>
+        <v>64.89662699839886</v>
       </c>
       <c r="R10" t="n">
         <v>165.8745716194016</v>
@@ -28062,10 +28062,10 @@
         <v>219.5908241842345</v>
       </c>
       <c r="T10" t="n">
-        <v>226.860501420568</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3051771691584</v>
+        <v>196.1585915392713</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-12</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>5.464171643889758e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-6.107776353646526e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09251611130367664</v>
+        <v>0.09251611130367678</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9474806248887786</v>
+        <v>0.94748062488878</v>
       </c>
       <c r="I5" t="n">
-        <v>3.566727381034997</v>
+        <v>3.566727381035002</v>
       </c>
       <c r="J5" t="n">
-        <v>7.852189301760432</v>
+        <v>7.852189301760444</v>
       </c>
       <c r="K5" t="n">
-        <v>11.76839629324507</v>
+        <v>11.76839629324508</v>
       </c>
       <c r="L5" t="n">
-        <v>14.59973623455496</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M5" t="n">
-        <v>16.24501962895172</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N5" t="n">
-        <v>16.50788103019329</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O5" t="n">
-        <v>15.58792394841736</v>
+        <v>15.58792394841738</v>
       </c>
       <c r="P5" t="n">
-        <v>13.30393245060784</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544916</v>
+        <v>9.990699214544932</v>
       </c>
       <c r="R5" t="n">
-        <v>5.811515176679582</v>
+        <v>5.811515176679592</v>
       </c>
       <c r="S5" t="n">
-        <v>2.108210886332533</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4049892772318447</v>
+        <v>0.4049892772318453</v>
       </c>
       <c r="U5" t="n">
-        <v>0.007401288904294129</v>
+        <v>0.00740128890429414</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04950048351498136</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H6" t="n">
-        <v>0.478070459210478</v>
+        <v>0.4780704592104787</v>
       </c>
       <c r="I6" t="n">
-        <v>1.704292963125455</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J6" t="n">
-        <v>4.676710155246552</v>
+        <v>4.676710155246559</v>
       </c>
       <c r="K6" t="n">
-        <v>7.993242550750302</v>
+        <v>7.993242550750314</v>
       </c>
       <c r="L6" t="n">
-        <v>10.74790103688225</v>
+        <v>10.74790103688226</v>
       </c>
       <c r="M6" t="n">
-        <v>12.54229356430032</v>
+        <v>12.54229356430034</v>
       </c>
       <c r="N6" t="n">
-        <v>12.87425075418807</v>
+        <v>12.87425075418809</v>
       </c>
       <c r="O6" t="n">
-        <v>11.77742425104032</v>
+        <v>11.77742425104034</v>
       </c>
       <c r="P6" t="n">
-        <v>9.452421277523065</v>
+        <v>9.452421277523079</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.318693299210604</v>
+        <v>6.318693299210613</v>
       </c>
       <c r="R6" t="n">
-        <v>3.073372125605598</v>
+        <v>3.073372125605603</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9194497705523944</v>
+        <v>0.9194497705523959</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1995216857467888</v>
+        <v>0.1995216857467891</v>
       </c>
       <c r="U6" t="n">
-        <v>0.003256610757564565</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04149954254994842</v>
+        <v>0.04149954254994848</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3689686601259053</v>
+        <v>0.3689686601259058</v>
       </c>
       <c r="I7" t="n">
-        <v>1.24800442504754</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J7" t="n">
-        <v>2.934017658281353</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K7" t="n">
-        <v>4.821492307166733</v>
+        <v>4.821492307166741</v>
       </c>
       <c r="L7" t="n">
-        <v>6.169850171471423</v>
+        <v>6.169850171471433</v>
       </c>
       <c r="M7" t="n">
-        <v>6.505241928988732</v>
+        <v>6.505241928988742</v>
       </c>
       <c r="N7" t="n">
-        <v>6.35056181584802</v>
+        <v>6.35056181584803</v>
       </c>
       <c r="O7" t="n">
-        <v>5.865771705150893</v>
+        <v>5.865771705150903</v>
       </c>
       <c r="P7" t="n">
-        <v>5.019181037131942</v>
+        <v>5.019181037131949</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.475020785705226</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R7" t="n">
-        <v>1.865970340473135</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7232238460750099</v>
+        <v>0.723223846075011</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1773162272588705</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002263611411815371</v>
+        <v>0.002263611411815374</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5661530501060436</v>
+        <v>0.5661530501060406</v>
       </c>
       <c r="H8" t="n">
-        <v>5.79811492439852</v>
+        <v>5.798114924398489</v>
       </c>
       <c r="I8" t="n">
-        <v>21.82661546421327</v>
+        <v>21.82661546421315</v>
       </c>
       <c r="J8" t="n">
-        <v>48.05153243643786</v>
+        <v>48.0515324364376</v>
       </c>
       <c r="K8" t="n">
-        <v>72.01679104742669</v>
+        <v>72.01679104742632</v>
       </c>
       <c r="L8" t="n">
-        <v>89.34319745460955</v>
+        <v>89.34319745460908</v>
       </c>
       <c r="M8" t="n">
-        <v>99.41152175943289</v>
+        <v>99.41152175943238</v>
       </c>
       <c r="N8" t="n">
-        <v>101.0201041130467</v>
+        <v>101.0201041130462</v>
       </c>
       <c r="O8" t="n">
-        <v>95.39041972105473</v>
+        <v>95.39041972105422</v>
       </c>
       <c r="P8" t="n">
-        <v>81.41351629656175</v>
+        <v>81.41351629656133</v>
       </c>
       <c r="Q8" t="n">
-        <v>61.13816018963905</v>
+        <v>61.13816018963873</v>
       </c>
       <c r="R8" t="n">
-        <v>35.56361153372379</v>
+        <v>35.5636115337236</v>
       </c>
       <c r="S8" t="n">
-        <v>12.90121262929148</v>
+        <v>12.90121262929141</v>
       </c>
       <c r="T8" t="n">
-        <v>2.478334976839207</v>
+        <v>2.478334976839194</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04529224400848347</v>
+        <v>0.04529224400848324</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3029185871392857</v>
+        <v>0.3029185871392841</v>
       </c>
       <c r="H9" t="n">
-        <v>2.925555828424155</v>
+        <v>2.925555828424139</v>
       </c>
       <c r="I9" t="n">
-        <v>10.42943381159383</v>
+        <v>10.42943381159377</v>
       </c>
       <c r="J9" t="n">
-        <v>28.61916353319015</v>
+        <v>28.61916353319</v>
       </c>
       <c r="K9" t="n">
-        <v>48.91470887152229</v>
+        <v>48.91470887152204</v>
       </c>
       <c r="L9" t="n">
-        <v>65.77186252776465</v>
+        <v>65.77186252776431</v>
       </c>
       <c r="M9" t="n">
-        <v>76.75266131156374</v>
+        <v>76.75266131156334</v>
       </c>
       <c r="N9" t="n">
-        <v>78.78407587180924</v>
+        <v>78.78407587180881</v>
       </c>
       <c r="O9" t="n">
-        <v>72.07203770414399</v>
+        <v>72.07203770414363</v>
       </c>
       <c r="P9" t="n">
-        <v>57.84416424065887</v>
+        <v>57.84416424065856</v>
       </c>
       <c r="Q9" t="n">
-        <v>38.66729193027093</v>
+        <v>38.66729193027073</v>
       </c>
       <c r="R9" t="n">
-        <v>18.80752420852513</v>
+        <v>18.80752420852503</v>
       </c>
       <c r="S9" t="n">
-        <v>5.626579897082781</v>
+        <v>5.626579897082752</v>
       </c>
       <c r="T9" t="n">
-        <v>1.220974480618436</v>
+        <v>1.22097448061843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01992885441705828</v>
+        <v>0.01992885441705818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2539567677627316</v>
+        <v>0.2539567677627302</v>
       </c>
       <c r="H10" t="n">
-        <v>2.257906535199561</v>
+        <v>2.257906535199549</v>
       </c>
       <c r="I10" t="n">
-        <v>7.637172615991967</v>
+        <v>7.637172615991926</v>
       </c>
       <c r="J10" t="n">
-        <v>17.95474348082512</v>
+        <v>17.95474348082503</v>
       </c>
       <c r="K10" t="n">
-        <v>29.5051590182519</v>
+        <v>29.50515901825175</v>
       </c>
       <c r="L10" t="n">
-        <v>37.75644527265194</v>
+        <v>37.75644527265174</v>
       </c>
       <c r="M10" t="n">
-        <v>39.80887769575255</v>
+        <v>39.80887769575234</v>
       </c>
       <c r="N10" t="n">
-        <v>38.86231156136422</v>
+        <v>38.86231156136401</v>
       </c>
       <c r="O10" t="n">
-        <v>35.89563477431775</v>
+        <v>35.89563477431756</v>
       </c>
       <c r="P10" t="n">
-        <v>30.714916711958</v>
+        <v>30.71491671195784</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.26541625329564</v>
+        <v>21.26541625329553</v>
       </c>
       <c r="R10" t="n">
-        <v>11.41881975776791</v>
+        <v>11.41881975776785</v>
       </c>
       <c r="S10" t="n">
-        <v>4.425773852737785</v>
+        <v>4.425773852737761</v>
       </c>
       <c r="T10" t="n">
-        <v>1.085088007713489</v>
+        <v>1.085088007713483</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01385218733251265</v>
+        <v>0.01385218733251257</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
         <v>0.436756920190194</v>
@@ -31832,43 +31832,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>208.191296957906</v>
+        <v>283.1210503161066</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>181.3625385436713</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31914,7 +31914,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
         <v>173.1391022273333</v>
@@ -31923,16 +31923,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
         <v>296.1865264282424</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,43 +32069,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745724</v>
+        <v>499.0453783605968</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>344.3187317059969</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,46 +32224,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K17" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S17" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U17" t="n">
         <v>0.436756920190194</v>
@@ -32306,7 +32306,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32318,31 +32318,31 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927637</v>
+        <v>347.0847408589315</v>
       </c>
       <c r="O18" t="n">
-        <v>422.3544583169088</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S18" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U18" t="n">
         <v>0.1921756201013754</v>
@@ -32388,7 +32388,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J19" t="n">
         <v>173.1391022273333</v>
@@ -32397,16 +32397,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P19" t="n">
         <v>296.1865264282424</v>
@@ -32418,7 +32418,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T19" t="n">
         <v>10.46359496551969</v>
@@ -32461,46 +32461,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K20" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
         <v>0.436756920190194</v>
@@ -32543,7 +32543,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,34 +32552,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745724</v>
+        <v>242.1675041333944</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P21" t="n">
-        <v>344.3187317059969</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S21" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
         <v>0.1921756201013754</v>
@@ -32625,7 +32625,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J22" t="n">
         <v>173.1391022273333</v>
@@ -32634,16 +32634,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P22" t="n">
         <v>296.1865264282424</v>
@@ -32655,7 +32655,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T22" t="n">
         <v>10.46359496551969</v>
@@ -32698,46 +32698,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K23" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S23" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U23" t="n">
         <v>0.436756920190194</v>
@@ -32780,7 +32780,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H24" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,31 +32792,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>152.1929830599434</v>
+        <v>187.8760176396499</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R24" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U24" t="n">
         <v>0.1921756201013754</v>
@@ -32862,7 +32862,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J25" t="n">
         <v>173.1391022273333</v>
@@ -32871,16 +32871,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P25" t="n">
         <v>296.1865264282424</v>
@@ -32892,7 +32892,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T25" t="n">
         <v>10.46359496551969</v>
@@ -32935,46 +32935,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K26" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M26" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P26" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S26" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T26" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U26" t="n">
         <v>0.436756920190194</v>
@@ -33017,43 +33017,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H27" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>242.7853424804487</v>
       </c>
       <c r="K27" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O27" t="n">
-        <v>147.6720980399086</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P27" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S27" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U27" t="n">
         <v>0.1921756201013754</v>
@@ -33099,7 +33099,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J28" t="n">
         <v>173.1391022273333</v>
@@ -33108,16 +33108,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M28" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P28" t="n">
         <v>296.1865264282424</v>
@@ -33129,7 +33129,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T28" t="n">
         <v>10.46359496551969</v>
@@ -33172,46 +33172,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K29" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S29" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T29" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U29" t="n">
         <v>0.436756920190194</v>
@@ -33254,7 +33254,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H30" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,34 +33263,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L30" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P30" t="n">
-        <v>344.3187317059969</v>
+        <v>370.2780676825823</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S30" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U30" t="n">
         <v>0.1921756201013754</v>
@@ -33336,7 +33336,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J31" t="n">
         <v>173.1391022273333</v>
@@ -33345,16 +33345,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P31" t="n">
         <v>296.1865264282424</v>
@@ -33366,7 +33366,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T31" t="n">
         <v>10.46359496551969</v>
@@ -33409,46 +33409,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K32" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L32" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M32" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P32" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R32" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S32" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T32" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U32" t="n">
         <v>0.436756920190194</v>
@@ -33491,7 +33491,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H33" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,34 +33500,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L33" t="n">
-        <v>187.8760176396507</v>
+        <v>416.3441059778911</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P33" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q33" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S33" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T33" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U33" t="n">
         <v>0.1921756201013754</v>
@@ -33573,7 +33573,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J34" t="n">
         <v>173.1391022273333</v>
@@ -33582,16 +33582,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L34" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M34" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N34" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O34" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P34" t="n">
         <v>296.1865264282424</v>
@@ -33603,7 +33603,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T34" t="n">
         <v>10.46359496551969</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K35" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M35" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S35" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U35" t="n">
         <v>0.436756920190194</v>
@@ -33728,43 +33728,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>344.3187317059969</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>294.0824323053266</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S36" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U36" t="n">
         <v>0.1921756201013754</v>
@@ -33810,7 +33810,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J37" t="n">
         <v>173.1391022273333</v>
@@ -33819,16 +33819,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P37" t="n">
         <v>296.1865264282424</v>
@@ -33840,7 +33840,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T37" t="n">
         <v>10.46359496551969</v>
@@ -33883,46 +33883,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K38" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S38" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T38" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U38" t="n">
         <v>0.436756920190194</v>
@@ -33965,43 +33965,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H39" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745724</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426204</v>
+        <v>457.4893851949311</v>
       </c>
       <c r="P39" t="n">
-        <v>344.3187317059969</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S39" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U39" t="n">
         <v>0.1921756201013754</v>
@@ -34047,7 +34047,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J40" t="n">
         <v>173.1391022273333</v>
@@ -34056,16 +34056,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P40" t="n">
         <v>296.1865264282424</v>
@@ -34077,7 +34077,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T40" t="n">
         <v>10.46359496551969</v>
@@ -34120,46 +34120,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K41" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M41" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S41" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U41" t="n">
         <v>0.436756920190194</v>
@@ -34202,43 +34202,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>273.1667658614674</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M42" t="n">
-        <v>258.0817497358009</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R42" t="n">
-        <v>181.3625385436713</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S42" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U42" t="n">
         <v>0.1921756201013754</v>
@@ -34284,7 +34284,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J43" t="n">
         <v>173.1391022273333</v>
@@ -34293,16 +34293,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P43" t="n">
         <v>296.1865264282424</v>
@@ -34314,7 +34314,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T43" t="n">
         <v>10.46359496551969</v>
@@ -34357,46 +34357,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H44" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K44" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L44" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M44" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N44" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O44" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P44" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q44" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R44" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S44" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U44" t="n">
         <v>0.436756920190194</v>
@@ -34439,43 +34439,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>634.2436048745724</v>
+        <v>529.4268017416155</v>
       </c>
       <c r="M45" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N45" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P45" t="n">
-        <v>344.3187317059969</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S45" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T45" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U45" t="n">
         <v>0.1921756201013754</v>
@@ -34521,7 +34521,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J46" t="n">
         <v>173.1391022273333</v>
@@ -34530,16 +34530,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M46" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N46" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O46" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P46" t="n">
         <v>296.1865264282424</v>
@@ -34551,7 +34551,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T46" t="n">
         <v>10.46359496551969</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.930118828988702</v>
       </c>
       <c r="K3" t="n">
-        <v>2.65770498321482</v>
+        <v>134.6170405889699</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604673</v>
+        <v>114.2573676262248</v>
       </c>
       <c r="M3" t="n">
         <v>263.2420339516669</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="O3" t="n">
         <v>263.0434990833254</v>
       </c>
       <c r="P3" t="n">
-        <v>193.94078250313</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>76.41420694903819</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>235.4123198945115</v>
       </c>
       <c r="N5" t="n">
-        <v>224.4417418455865</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O5" t="n">
         <v>166.289893789476</v>
       </c>
       <c r="P5" t="n">
-        <v>103.8696448668209</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.119104808822158e-13</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3.930118828988702</v>
       </c>
       <c r="K6" t="n">
-        <v>79.07191193225304</v>
+        <v>134.6170405889699</v>
       </c>
       <c r="L6" t="n">
-        <v>243.0338665604672</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>263.2420339516669</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="O6" t="n">
-        <v>263.0434990833254</v>
+        <v>106.945877257382</v>
       </c>
       <c r="P6" t="n">
         <v>193.94078250313</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>76.41420694903819</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>33.75987543178756</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M7" t="n">
-        <v>46.08911889082932</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N7" t="n">
-        <v>50.48273419507661</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O7" t="n">
-        <v>30.45089961919057</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P7" t="n">
-        <v>2.29774030202543</v>
+        <v>2.297740302025437</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>36.10224308182534</v>
+        <v>36.10224308182509</v>
       </c>
       <c r="K8" t="n">
-        <v>176.0723525736109</v>
+        <v>176.0723525736105</v>
       </c>
       <c r="L8" t="n">
-        <v>271.2379970350727</v>
+        <v>271.2379970350723</v>
       </c>
       <c r="M8" t="n">
-        <v>318.5788220249926</v>
+        <v>318.5788220249921</v>
       </c>
       <c r="N8" t="n">
-        <v>308.95396492844</v>
+        <v>308.9539649284394</v>
       </c>
       <c r="O8" t="n">
-        <v>246.0923895621133</v>
+        <v>246.0923895621128</v>
       </c>
       <c r="P8" t="n">
-        <v>171.9792287127748</v>
+        <v>171.9792287127744</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.14746097509425</v>
+        <v>51.14746097509393</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>27.87257220693214</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>175.5385069097416</v>
       </c>
       <c r="L9" t="n">
-        <v>298.0578280513496</v>
+        <v>298.0578280513493</v>
       </c>
       <c r="M9" t="n">
-        <v>317.363846333506</v>
+        <v>5.189961636732265</v>
       </c>
       <c r="N9" t="n">
-        <v>399.0721465063737</v>
+        <v>399.0721465063729</v>
       </c>
       <c r="O9" t="n">
-        <v>323.3381125364291</v>
+        <v>323.3381125364287</v>
       </c>
       <c r="P9" t="n">
-        <v>242.3325254662658</v>
+        <v>242.3325254662655</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>108.7628055800983</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>7.235667192369046</v>
+        <v>7.235667192368894</v>
       </c>
       <c r="L10" t="n">
-        <v>65.34647053296808</v>
+        <v>65.34647053296788</v>
       </c>
       <c r="M10" t="n">
-        <v>79.39275465759314</v>
+        <v>79.39275465759292</v>
       </c>
       <c r="N10" t="n">
-        <v>82.9944839405928</v>
+        <v>82.9944839405926</v>
       </c>
       <c r="O10" t="n">
-        <v>60.48076268835742</v>
+        <v>60.48076268835723</v>
       </c>
       <c r="P10" t="n">
-        <v>27.99347597685149</v>
+        <v>27.99347597685133</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>333.631713989811</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>741.0722806160982</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>70.34985798354698</v>
+        <v>145.2796113417475</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>35.6830345797074</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
         <v>262.2512393642057</v>
@@ -35574,19 +35574,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>796.044948755459</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>418.5673812695019</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946982</v>
+        <v>360.4909985807226</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>210.3443242916667</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>333.631713989811</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L17" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404111</v>
+        <v>418.5673812694992</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094305</v>
+        <v>215.7430287755981</v>
       </c>
       <c r="O18" t="n">
-        <v>279.7582138724644</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K19" t="n">
         <v>262.2512393642057</v>
@@ -36048,19 +36048,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N19" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
-        <v>525.6867728671534</v>
+        <v>525.6867728671521</v>
       </c>
       <c r="L20" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946982</v>
+        <v>103.6131243535202</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P21" t="n">
-        <v>210.3443242916667</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K22" t="n">
         <v>262.2512393642057</v>
@@ -36285,19 +36285,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L23" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M23" t="n">
-        <v>728.287436302058</v>
+        <v>779.6000841311477</v>
       </c>
       <c r="N23" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P23" t="n">
-        <v>605.157040442574</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>13.63860328006924</v>
+        <v>49.3216378597757</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O24" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R24" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K25" t="n">
         <v>262.2512393642057</v>
@@ -36522,19 +36522,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N25" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L26" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M26" t="n">
-        <v>779.6000841311491</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N26" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P26" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>115.947715813782</v>
       </c>
       <c r="K27" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O27" t="n">
-        <v>5.07585359546421</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K28" t="n">
         <v>262.2512393642057</v>
@@ -36759,19 +36759,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N28" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O28" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P28" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>333.631713989811</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L29" t="n">
-        <v>625.777556066439</v>
+        <v>677.0902038955297</v>
       </c>
       <c r="M29" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N29" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P29" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R29" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L30" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P30" t="n">
-        <v>210.3443242916667</v>
+        <v>236.3036602682521</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K31" t="n">
         <v>262.2512393642057</v>
@@ -36996,19 +36996,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N31" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O31" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L32" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M32" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N32" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O32" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P32" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R32" t="n">
-        <v>178.670008613675</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L33" t="n">
-        <v>49.32163785977649</v>
+        <v>277.7897261980169</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O33" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P33" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q33" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K34" t="n">
         <v>262.2512393642057</v>
@@ -37233,19 +37233,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M34" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N34" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O34" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P34" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L35" t="n">
-        <v>677.09020389553</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M35" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N35" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P35" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404111</v>
+        <v>418.5673812695001</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O36" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>210.3443242916667</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>154.100658219305</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K37" t="n">
         <v>262.2512393642057</v>
@@ -37470,19 +37470,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N37" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380625</v>
+        <v>525.6867728671539</v>
       </c>
       <c r="L38" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M38" t="n">
-        <v>779.6000841311491</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N38" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>495.6892250946982</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O39" t="n">
-        <v>552.400479798176</v>
+        <v>314.8931407504866</v>
       </c>
       <c r="P39" t="n">
-        <v>210.3443242916667</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K40" t="n">
         <v>262.2512393642057</v>
@@ -37707,19 +37707,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N40" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O40" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L41" t="n">
-        <v>625.777556066439</v>
+        <v>677.0902038955306</v>
       </c>
       <c r="M41" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N41" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P41" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q41" t="n">
-        <v>418.5673812695019</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>146.3291391948007</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M42" t="n">
-        <v>115.9477158137827</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R42" t="n">
-        <v>35.6830345797074</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K43" t="n">
         <v>262.2512393642057</v>
@@ -37944,19 +37944,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N43" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O43" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K44" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L44" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M44" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N44" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O44" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P44" t="n">
-        <v>553.8443926134828</v>
+        <v>605.1570404425736</v>
       </c>
       <c r="Q44" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R44" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>495.6892250946982</v>
+        <v>390.8724219617412</v>
       </c>
       <c r="M45" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N45" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P45" t="n">
-        <v>210.3443242916667</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K46" t="n">
         <v>262.2512393642057</v>
@@ -38181,19 +38181,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N46" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P46" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q46" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
